--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,7 +1474,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670588</v>
+        <v>111671395</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558039.6361001397</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R9" t="n">
-        <v>7067902.375451046</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671406</v>
+        <v>111671384</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,30 +1603,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1634,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557823.3030943703</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R10" t="n">
-        <v>7068159.357501161</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1707,7 +1708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111671395</v>
+        <v>111670588</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1751,10 +1752,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557763.2623863788</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R11" t="n">
-        <v>7068264.582601988</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1824,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111670593</v>
+        <v>111670607</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,30 +1837,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1867,10 +1869,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558040.5475534229</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R12" t="n">
-        <v>7067901.063021242</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,10 +1942,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671364</v>
+        <v>111670575</v>
       </c>
       <c r="B13" t="n">
-        <v>96368</v>
+        <v>96346</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1952,25 +1954,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221952</v>
+        <v>620</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1984,10 +1986,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557813.3601359134</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R13" t="n">
-        <v>7068169.364891288</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2057,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111670599</v>
+        <v>111671406</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2069,31 +2071,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2101,10 +2102,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558031.5226908802</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R14" t="n">
-        <v>7067909.315233406</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2291,7 +2292,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111671384</v>
+        <v>111670599</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2335,10 +2336,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557798.0632258818</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R16" t="n">
-        <v>7068181.046264404</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111670607</v>
+        <v>111670593</v>
       </c>
       <c r="B17" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2420,31 +2421,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558031.5471372061</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R17" t="n">
-        <v>7067907.98648507</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670575</v>
+        <v>111671364</v>
       </c>
       <c r="B18" t="n">
-        <v>96346</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2537,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>620</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558082.6649719321</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R18" t="n">
-        <v>7067974.943554637</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671395</v>
+        <v>111670575</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557763.2623863788</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R9" t="n">
-        <v>7068264.582601988</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671384</v>
+        <v>111671345</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557798.0632258818</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R10" t="n">
-        <v>7068181.046264404</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111670588</v>
+        <v>111670599</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558039.6361001397</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R11" t="n">
-        <v>7067902.375451046</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111670607</v>
+        <v>111671384</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558031.5471372061</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R12" t="n">
-        <v>7067907.98648507</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111670575</v>
+        <v>111671395</v>
       </c>
       <c r="B13" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,25 +1954,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558082.6649719321</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R13" t="n">
-        <v>7067974.943554637</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111671406</v>
+        <v>111670607</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2071,30 +2071,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2102,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>557823.3030943703</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R14" t="n">
-        <v>7068159.357501161</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2175,10 +2176,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111671345</v>
+        <v>111671406</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,31 +2188,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>557812.5300353739</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R15" t="n">
-        <v>7068166.248475613</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111670599</v>
+        <v>111671364</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,25 +2304,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558031.5226908802</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R16" t="n">
-        <v>7067909.315233406</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111671364</v>
+        <v>111670588</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2537,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557813.3601359134</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R18" t="n">
-        <v>7068169.364891288</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670575</v>
+        <v>111670599</v>
       </c>
       <c r="B9" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558082.6649719321</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R9" t="n">
-        <v>7067974.943554637</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671345</v>
+        <v>111671395</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557812.5300353739</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R10" t="n">
-        <v>7068166.248475613</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111670599</v>
+        <v>111670575</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,25 +1720,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558031.5226908802</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R11" t="n">
-        <v>7067909.315233406</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111671384</v>
+        <v>111670588</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>557798.0632258818</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R12" t="n">
-        <v>7068181.046264404</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671395</v>
+        <v>111671345</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557763.2623863788</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R13" t="n">
-        <v>7068264.582601988</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111670607</v>
+        <v>111671364</v>
       </c>
       <c r="B14" t="n">
         <v>96368</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558031.5471372061</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R14" t="n">
-        <v>7067907.98648507</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111671364</v>
+        <v>111670593</v>
       </c>
       <c r="B16" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,31 +2304,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2336,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557813.3601359134</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R16" t="n">
-        <v>7068169.364891288</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2409,10 +2408,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111670593</v>
+        <v>111671384</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,30 +2420,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558040.5475534229</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R17" t="n">
-        <v>7067901.063021242</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670588</v>
+        <v>111670607</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2537,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558039.6361001397</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R18" t="n">
-        <v>7067902.375451046</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670599</v>
+        <v>111671406</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,31 +1486,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1518,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558031.5226908802</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R9" t="n">
-        <v>7067909.315233406</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671395</v>
+        <v>111671364</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,25 +1602,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557763.2623863788</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R10" t="n">
-        <v>7068264.582601988</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111670575</v>
+        <v>111671384</v>
       </c>
       <c r="B11" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,25 +1719,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1752,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558082.6649719321</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R11" t="n">
-        <v>7067974.943554637</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1825,7 +1824,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111670588</v>
+        <v>111671395</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1869,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558039.6361001397</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R12" t="n">
-        <v>7067902.375451046</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1942,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671345</v>
+        <v>111670575</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1986,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557812.5300353739</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R13" t="n">
-        <v>7068166.248475613</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2059,7 +2058,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111671364</v>
+        <v>111670607</v>
       </c>
       <c r="B14" t="n">
         <v>96368</v>
@@ -2103,10 +2102,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>557813.3601359134</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R14" t="n">
-        <v>7068169.364891288</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2176,7 +2175,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111671406</v>
+        <v>111670593</v>
       </c>
       <c r="B15" t="n">
         <v>78578</v>
@@ -2219,10 +2218,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>557823.3030943703</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R15" t="n">
-        <v>7068159.357501161</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2292,10 +2291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111670593</v>
+        <v>111671345</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,30 +2303,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558040.5475534229</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R16" t="n">
-        <v>7067901.063021242</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111671384</v>
+        <v>111670588</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557798.0632258818</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R17" t="n">
-        <v>7068181.046264404</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670607</v>
+        <v>111670599</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2537,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558031.5471372061</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R18" t="n">
-        <v>7067907.98648507</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,7 +1474,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111671406</v>
+        <v>111670593</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>557823.3030943703</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R9" t="n">
-        <v>7068159.357501161</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111671384</v>
+        <v>111670599</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557798.0632258818</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R11" t="n">
-        <v>7068181.046264404</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111670575</v>
+        <v>111671384</v>
       </c>
       <c r="B13" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558082.6649719321</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R13" t="n">
-        <v>7067974.943554637</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111670593</v>
+        <v>111670588</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,30 +2187,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2218,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558040.5475534229</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R15" t="n">
-        <v>7067901.063021242</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2291,10 +2292,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111671345</v>
+        <v>111670575</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2303,25 +2304,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2336,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557812.5300353739</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R16" t="n">
-        <v>7068166.248475613</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111670588</v>
+        <v>111671406</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2420,31 +2421,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558039.6361001397</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R17" t="n">
-        <v>7067902.375451046</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670599</v>
+        <v>111671345</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558031.5226908802</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R18" t="n">
-        <v>7067909.315233406</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670593</v>
+        <v>111670575</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,26 +1490,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1517,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558040.5475534229</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R9" t="n">
-        <v>7067901.063021242</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1707,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111670599</v>
+        <v>111671406</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,31 +1720,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558031.5226908802</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R11" t="n">
-        <v>7067909.315233406</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111671395</v>
+        <v>111671345</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>557763.2623863788</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R12" t="n">
-        <v>7068264.582601988</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671384</v>
+        <v>111671395</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557798.0632258818</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R13" t="n">
-        <v>7068181.046264404</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111670607</v>
+        <v>111670593</v>
       </c>
       <c r="B14" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,31 +2070,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2102,10 +2101,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558031.5471372061</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R14" t="n">
-        <v>7067907.98648507</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2175,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111670588</v>
+        <v>111670607</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,25 +2186,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2218,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558039.6361001397</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R15" t="n">
-        <v>7067902.375451046</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2292,10 +2291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111670575</v>
+        <v>111670588</v>
       </c>
       <c r="B16" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,25 +2303,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2336,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558082.6649719321</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R16" t="n">
-        <v>7067974.943554637</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2409,10 +2408,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111671406</v>
+        <v>111671384</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,30 +2420,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557823.3030943703</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R17" t="n">
-        <v>7068159.357501161</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111671345</v>
+        <v>111670599</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557812.5300353739</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R18" t="n">
-        <v>7068166.248475613</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670575</v>
+        <v>111670607</v>
       </c>
       <c r="B9" t="n">
-        <v>96346</v>
+        <v>96368</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>620</v>
+        <v>221952</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558082.6649719321</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R9" t="n">
-        <v>7067974.943554637</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671364</v>
+        <v>111671406</v>
       </c>
       <c r="B10" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,31 +1603,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1635,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557813.3601359134</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R10" t="n">
-        <v>7068169.364891288</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111671406</v>
+        <v>111671384</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,30 +1719,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557823.3030943703</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R11" t="n">
-        <v>7068159.357501161</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111671345</v>
+        <v>111670599</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>557812.5300353739</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R12" t="n">
-        <v>7068166.248475613</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671395</v>
+        <v>111670575</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557763.2623863788</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R13" t="n">
-        <v>7068264.582601988</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111670607</v>
+        <v>111671345</v>
       </c>
       <c r="B15" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2186,25 +2186,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558031.5471372061</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R15" t="n">
-        <v>7067907.98648507</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111671384</v>
+        <v>111671364</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2420,25 +2420,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557798.0632258818</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R17" t="n">
-        <v>7068181.046264404</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670599</v>
+        <v>111671395</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558031.5226908802</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R18" t="n">
-        <v>7067909.315233406</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670607</v>
+        <v>111670599</v>
       </c>
       <c r="B9" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558031.5471372061</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R9" t="n">
-        <v>7067907.98648507</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111671406</v>
+        <v>111670575</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,26 +1607,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1634,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>557823.3030943703</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R10" t="n">
-        <v>7068159.357501161</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1707,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111671384</v>
+        <v>111671406</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,31 +1720,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557798.0632258818</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R11" t="n">
-        <v>7068181.046264404</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111670599</v>
+        <v>111670607</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,25 +1836,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558031.5226908802</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R12" t="n">
-        <v>7067909.315233406</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111670575</v>
+        <v>111670588</v>
       </c>
       <c r="B13" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1953,25 +1953,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558082.6649719321</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R13" t="n">
-        <v>7067974.943554637</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111670593</v>
+        <v>111671345</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,30 +2070,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2101,10 +2102,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558040.5475534229</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R14" t="n">
-        <v>7067901.063021242</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2174,10 +2175,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111671345</v>
+        <v>111670593</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2186,31 +2187,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>557812.5300353739</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R15" t="n">
-        <v>7068166.248475613</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111670588</v>
+        <v>111671395</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558039.6361001397</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R16" t="n">
-        <v>7067902.375451046</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111671395</v>
+        <v>111671384</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557763.2623863788</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R18" t="n">
-        <v>7068264.582601988</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670599</v>
+        <v>111670593</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,31 +1486,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1518,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558031.5226908802</v>
+        <v>558040.5475534229</v>
       </c>
       <c r="R9" t="n">
-        <v>7067909.315233406</v>
+        <v>7067901.063021242</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1591,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670575</v>
+        <v>111670599</v>
       </c>
       <c r="B10" t="n">
-        <v>96346</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,25 +1602,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>620</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558082.6649719321</v>
+        <v>558031.5226908802</v>
       </c>
       <c r="R10" t="n">
-        <v>7067974.943554637</v>
+        <v>7067909.315233406</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111671406</v>
+        <v>111670588</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,30 +1719,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>557823.3030943703</v>
+        <v>558039.6361001397</v>
       </c>
       <c r="R11" t="n">
-        <v>7068159.357501161</v>
+        <v>7067902.375451046</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111670607</v>
+        <v>111671384</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,25 +1836,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558031.5471372061</v>
+        <v>557798.0632258818</v>
       </c>
       <c r="R12" t="n">
-        <v>7067907.98648507</v>
+        <v>7068181.046264404</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111670588</v>
+        <v>111671395</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558039.6361001397</v>
+        <v>557763.2623863788</v>
       </c>
       <c r="R13" t="n">
-        <v>7067902.375451046</v>
+        <v>7068264.582601988</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111671345</v>
+        <v>111671364</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,25 +2070,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>557812.5300353739</v>
+        <v>557813.3601359134</v>
       </c>
       <c r="R14" t="n">
-        <v>7068166.248475613</v>
+        <v>7068169.364891288</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111670593</v>
+        <v>111670575</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,26 +2191,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2218,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558040.5475534229</v>
+        <v>558082.6649719321</v>
       </c>
       <c r="R15" t="n">
-        <v>7067901.063021242</v>
+        <v>7067974.943554637</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2291,7 +2292,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111671395</v>
+        <v>111671345</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2335,10 +2336,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557763.2623863788</v>
+        <v>557812.5300353739</v>
       </c>
       <c r="R16" t="n">
-        <v>7068264.582601988</v>
+        <v>7068166.248475613</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111671364</v>
+        <v>111671406</v>
       </c>
       <c r="B17" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2420,31 +2421,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557813.3601359134</v>
+        <v>557823.3030943703</v>
       </c>
       <c r="R17" t="n">
-        <v>7068169.364891288</v>
+        <v>7068159.357501161</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111671384</v>
+        <v>111670607</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2537,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557798.0632258818</v>
+        <v>558031.5471372061</v>
       </c>
       <c r="R18" t="n">
-        <v>7068181.046264404</v>
+        <v>7067907.98648507</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>

--- a/artfynd/A 41493-2022.xlsx
+++ b/artfynd/A 41493-2022.xlsx
@@ -1474,7 +1474,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111670593</v>
+        <v>111671406</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>558040.5475534229</v>
+        <v>557823</v>
       </c>
       <c r="R9" t="n">
-        <v>7067901.063021242</v>
+        <v>7068159</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1550,19 +1550,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1590,7 +1580,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111670599</v>
+        <v>111670588</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1634,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558031.5226908802</v>
+        <v>558040</v>
       </c>
       <c r="R10" t="n">
-        <v>7067909.315233406</v>
+        <v>7067902</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1667,19 +1657,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,7 +1687,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111670588</v>
+        <v>111671345</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1751,10 +1731,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558039.6361001397</v>
+        <v>557813</v>
       </c>
       <c r="R11" t="n">
-        <v>7067902.375451046</v>
+        <v>7068166</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1784,19 +1764,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1824,7 +1794,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111671384</v>
+        <v>111671395</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1868,10 +1838,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>557798.0632258818</v>
+        <v>557763</v>
       </c>
       <c r="R12" t="n">
-        <v>7068181.046264404</v>
+        <v>7068265</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,19 +1871,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1941,7 +1901,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111671395</v>
+        <v>111671384</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1985,10 +1945,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>557763.2623863788</v>
+        <v>557798</v>
       </c>
       <c r="R13" t="n">
-        <v>7068264.582601988</v>
+        <v>7068181</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2018,19 +1978,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2058,7 +2008,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111671364</v>
+        <v>111670607</v>
       </c>
       <c r="B14" t="n">
         <v>96368</v>
@@ -2102,10 +2052,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>557813.3601359134</v>
+        <v>558032</v>
       </c>
       <c r="R14" t="n">
-        <v>7068169.364891288</v>
+        <v>7067908</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2135,19 +2085,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2175,10 +2115,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111670575</v>
+        <v>111671364</v>
       </c>
       <c r="B15" t="n">
-        <v>96346</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,25 +2127,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>620</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2159,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558082.6649719321</v>
+        <v>557813</v>
       </c>
       <c r="R15" t="n">
-        <v>7067974.943554637</v>
+        <v>7068169</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2252,19 +2192,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2292,10 +2222,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111671345</v>
+        <v>111670593</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,31 +2234,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2336,10 +2265,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>557812.5300353739</v>
+        <v>558041</v>
       </c>
       <c r="R16" t="n">
-        <v>7068166.248475613</v>
+        <v>7067901</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2369,19 +2298,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2409,10 +2328,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111671406</v>
+        <v>111670599</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2421,30 +2340,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2452,10 +2372,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>557823.3030943703</v>
+        <v>558032</v>
       </c>
       <c r="R17" t="n">
-        <v>7068159.357501161</v>
+        <v>7067909</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2485,19 +2405,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2525,10 +2435,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111670607</v>
+        <v>111670575</v>
       </c>
       <c r="B18" t="n">
-        <v>96368</v>
+        <v>96346</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2447,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>620</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2569,10 +2479,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558031.5471372061</v>
+        <v>558083</v>
       </c>
       <c r="R18" t="n">
-        <v>7067907.98648507</v>
+        <v>7067975</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2602,19 +2512,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
